--- a/Java/java se bronze/模試.xlsx
+++ b/Java/java se bronze/模試.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\kohon\repo\Competitive-programming\Java\java se bronze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1BE26C-37AB-415C-BB6A-212F496259F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0803020-AA65-4C94-BD82-E4750BFF9A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="一回目" sheetId="1" r:id="rId1"/>
+    <sheet name="テンプレート" sheetId="3" r:id="rId1"/>
+    <sheet name="一回目" sheetId="1" r:id="rId2"/>
+    <sheet name="問題集の苦手分野" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="116">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -298,12 +300,242 @@
     <t>パッケージ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>間違えたやつ</t>
+    <rPh sb="0" eb="2">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一回目</t>
+    <rPh sb="0" eb="2">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二回目</t>
+    <rPh sb="0" eb="3">
+      <t>ニカイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三回目</t>
+    <rPh sb="0" eb="3">
+      <t>サンカイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-12</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>2-14</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>3-14</t>
+  </si>
+  <si>
+    <t>3-16</t>
+  </si>
+  <si>
+    <t>3-17</t>
+  </si>
+  <si>
+    <t>3-20</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>4-12</t>
+  </si>
+  <si>
+    <t>4-13</t>
+  </si>
+  <si>
+    <t>4-15</t>
+  </si>
+  <si>
+    <t>4-16</t>
+  </si>
+  <si>
+    <t>4-18</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>6-12</t>
+  </si>
+  <si>
+    <t>6-14</t>
+  </si>
+  <si>
+    <t>6-15</t>
+  </si>
+  <si>
+    <t>6-16</t>
+  </si>
+  <si>
+    <t>6-20</t>
+  </si>
+  <si>
+    <t>6-21</t>
+  </si>
+  <si>
+    <t>6-22</t>
+  </si>
+  <si>
+    <t>6-23</t>
+  </si>
+  <si>
+    <t>6-24</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>7-12</t>
+  </si>
+  <si>
+    <t>7-21</t>
+  </si>
+  <si>
+    <t>7-22</t>
+  </si>
+  <si>
+    <t>7-24</t>
+  </si>
+  <si>
+    <t>7-25</t>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習経過</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2－6</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +574,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -357,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -391,6 +631,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -398,13 +647,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -685,11 +937,661 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FDF08A-11C1-405C-B417-AE0AEEE28106}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="4.8125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.4375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="4.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <f>SUM(G2:G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <f>COUNTIF(C:C,F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A61" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <f>COUNTIF(C:C,F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="e">
+        <f>G2/G1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C61" xr:uid="{C7C3BAFC-5EDD-4D70-9139-21DF80ECF07D}">
+      <formula1>"〇,×"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1575,4 +2477,710 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="C1">
+        <f>COUNTIF(C3:C303,"〇")</f>
+        <v>55</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:E1" si="0">COUNTIF(D3:D303,"〇")</f>
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1"/>
+      <c r="B30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1"/>
+      <c r="B32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1"/>
+      <c r="B36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1"/>
+      <c r="B43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1"/>
+      <c r="B45" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1"/>
+      <c r="B46" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1"/>
+      <c r="B47" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1"/>
+      <c r="B49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1"/>
+      <c r="B50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1"/>
+      <c r="B51" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1"/>
+      <c r="B52" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1"/>
+      <c r="B53" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1"/>
+      <c r="B54" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1"/>
+      <c r="B56" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1"/>
+      <c r="B57" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1"/>
+      <c r="B58" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1"/>
+      <c r="B59" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1"/>
+      <c r="B60" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Java/java se bronze/模試.xlsx
+++ b/Java/java se bronze/模試.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\kohon\repo\Competitive-programming\Java\java se bronze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0803020-AA65-4C94-BD82-E4750BFF9A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EABC0C-D138-4A94-8F88-D68AB192B06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="118">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -527,7 +527,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2－6</t>
+    <t>2-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2－14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2481,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -2497,12 +2505,12 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1">
-        <f>COUNTIF(C3:C303,"〇")</f>
+        <f>COUNTIF(C3:C305,"〇")</f>
         <v>55</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:E1" si="0">COUNTIF(D3:D303,"〇")</f>
-        <v>5</v>
+        <f t="shared" ref="D1:E1" si="0">COUNTIF(D3:D305,"〇")</f>
+        <v>8</v>
       </c>
       <c r="E1">
         <f t="shared" si="0"/>
@@ -2529,7 +2537,7 @@
         <v>110</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>114</v>
@@ -2653,40 +2661,42 @@
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -2697,7 +2707,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -2708,7 +2718,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -2719,7 +2729,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -2730,7 +2740,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -2741,7 +2751,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -2752,7 +2762,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -2763,7 +2773,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -2774,7 +2784,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -2785,7 +2795,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -2796,7 +2806,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -2807,7 +2817,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -2818,7 +2828,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -2829,7 +2839,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -2840,7 +2850,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -2851,7 +2861,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -2862,7 +2872,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -2873,7 +2883,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -2884,7 +2894,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -2895,7 +2905,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -2906,7 +2916,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -2917,7 +2927,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -2928,7 +2938,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -2939,7 +2949,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -2950,7 +2960,7 @@
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -2961,7 +2971,7 @@
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -2972,7 +2982,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -2983,7 +2993,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -2994,7 +3004,7 @@
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -3005,7 +3015,7 @@
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -3016,7 +3026,7 @@
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -3027,7 +3037,7 @@
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -3038,7 +3048,7 @@
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -3049,7 +3059,7 @@
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -3060,7 +3070,7 @@
     <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -3071,7 +3081,7 @@
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
@@ -3082,7 +3092,7 @@
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
@@ -3093,7 +3103,7 @@
     <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
@@ -3104,7 +3114,7 @@
     <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
@@ -3115,7 +3125,7 @@
     <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
@@ -3126,7 +3136,7 @@
     <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
@@ -3137,7 +3147,7 @@
     <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
@@ -3148,7 +3158,7 @@
     <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
@@ -3159,7 +3169,7 @@
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
@@ -3170,13 +3180,35 @@
     <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1"/>
+      <c r="B61" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1"/>
+      <c r="B62" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Java/java se bronze/模試.xlsx
+++ b/Java/java se bronze/模試.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\kohon\repo\Competitive-programming\Java\java se bronze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EABC0C-D138-4A94-8F88-D68AB192B06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE7787-F992-4A89-9AA1-726020E15DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10170" yWindow="2813" windowWidth="15390" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="3" r:id="rId1"/>
-    <sheet name="一回目" sheetId="1" r:id="rId2"/>
-    <sheet name="問題集の苦手分野" sheetId="2" r:id="rId3"/>
+    <sheet name="問題集の苦手分野" sheetId="2" r:id="rId2"/>
+    <sheet name="二回目(0809)" sheetId="4" r:id="rId3"/>
+    <sheet name="一回目" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="145">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -301,13 +302,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>間違えたやつ</t>
-    <rPh sb="0" eb="2">
-      <t>マチガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一回目</t>
     <rPh sb="0" eb="2">
       <t>イッカイ</t>
@@ -535,7 +529,198 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2－14</t>
+    <t>3-13</t>
+  </si>
+  <si>
+    <t>3-15</t>
+  </si>
+  <si>
+    <t>3-19</t>
+  </si>
+  <si>
+    <t>4-11</t>
+  </si>
+  <si>
+    <t>オブジェクト指向コンセプト</t>
+    <rPh sb="6" eb="8">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス定義とオブジェクトの生成、使用</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-25</t>
+  </si>
+  <si>
+    <t>継承とポリモフィズム</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java言語のプログラムの流れ</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの宣言と使用</t>
+    <rPh sb="4" eb="6">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演算子と分岐文</t>
+    <rPh sb="0" eb="3">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループ文</t>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤回答</t>
+    <rPh sb="0" eb="1">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C,D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> B,E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル変数、インスタンス変数</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不適切なものを選ぶ</t>
+    <rPh sb="0" eb="3">
+      <t>フテキセツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドライン引数、文字列結合</t>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトの生成、インスタンス変数</t>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンストラクタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for文</t>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照型の型変換</t>
+    <rPh sb="0" eb="3">
+      <t>サンショウガタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -543,7 +728,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +775,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -605,7 +799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -648,6 +842,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -655,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -665,6 +885,36 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -948,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FDF08A-11C1-405C-B417-AE0AEEE28106}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -988,7 +1238,9 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1064,7 +1316,9 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
@@ -1162,7 +1416,9 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
@@ -1210,7 +1466,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1303,7 +1559,9 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
@@ -1424,7 +1682,9 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
@@ -1551,7 +1811,9 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
@@ -1595,11 +1857,1852 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
+  <dimension ref="A1:J72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="34.9375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.3125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="C1" s="17">
+        <f>COUNTIF(C3:C315,"〇")</f>
+        <v>55</v>
+      </c>
+      <c r="D1" s="17">
+        <f t="shared" ref="D1:E1" si="0">COUNTIF(D3:D315,"〇")</f>
+        <v>38</v>
+      </c>
+      <c r="E1" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="15"/>
+      <c r="B4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="15"/>
+      <c r="B5" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="16"/>
+      <c r="B7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="15"/>
+      <c r="B10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="15"/>
+      <c r="B11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="15"/>
+      <c r="B12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="15"/>
+      <c r="B13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="15"/>
+      <c r="B14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="15"/>
+      <c r="B15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="15"/>
+      <c r="B18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="15"/>
+      <c r="B19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="15"/>
+      <c r="B20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="15"/>
+      <c r="B21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="15"/>
+      <c r="B22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="15"/>
+      <c r="B23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="15"/>
+      <c r="B24" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="15"/>
+      <c r="B25" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="15"/>
+      <c r="B26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="15"/>
+      <c r="B27" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="16"/>
+      <c r="B28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="15"/>
+      <c r="B30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="15"/>
+      <c r="B31" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="15"/>
+      <c r="B32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="15"/>
+      <c r="B33" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="15"/>
+      <c r="B34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="15"/>
+      <c r="B35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="15"/>
+      <c r="B36" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="15"/>
+      <c r="B37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="15"/>
+      <c r="B38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="15"/>
+      <c r="B39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="15"/>
+      <c r="B40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="16"/>
+      <c r="B41" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="15"/>
+      <c r="B43" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="15"/>
+      <c r="B44" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="15"/>
+      <c r="B45" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="16"/>
+      <c r="B46" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="15"/>
+      <c r="B48" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="15"/>
+      <c r="B49" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="15"/>
+      <c r="B50" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="15"/>
+      <c r="B51" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="19"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="15"/>
+      <c r="B52" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="15"/>
+      <c r="B53" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="15"/>
+      <c r="B54" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="19"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="15"/>
+      <c r="B55" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="15"/>
+      <c r="B56" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="15"/>
+      <c r="B57" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="15"/>
+      <c r="B58" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="15"/>
+      <c r="B59" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="15"/>
+      <c r="B60" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="16"/>
+      <c r="B61" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="15"/>
+      <c r="B63" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="15"/>
+      <c r="B64" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="15"/>
+      <c r="B65" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="19"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="15"/>
+      <c r="B66" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="19"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="15"/>
+      <c r="B67" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="19"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="15"/>
+      <c r="B68" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="15"/>
+      <c r="B69" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="15"/>
+      <c r="B70" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="19"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="15"/>
+      <c r="B71" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="19"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="16"/>
+      <c r="B72" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A62:A72"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="A29:A41"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386ED8CD-8D87-4BED-8D01-3E2DF577800B}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="4.8125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.4375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="4.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <f>SUM(G2:G3)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <f>COUNTIF(C:C,F2)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A61" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <f>COUNTIF(C:C,F3)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <f>G2/G1</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C61" xr:uid="{55700792-92B2-4D12-B1DB-5AA949551298}">
+      <formula1>"〇,×"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -2485,734 +4588,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
-  <dimension ref="A1:J62"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
-  <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="7.3125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1">
-        <f>COUNTIF(C3:C305,"〇")</f>
-        <v>55</v>
-      </c>
-      <c r="D1">
-        <f t="shared" ref="D1:E1" si="0">COUNTIF(D3:D305,"〇")</f>
-        <v>8</v>
-      </c>
-      <c r="E1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1"/>
-      <c r="B14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
-      <c r="B28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1"/>
-      <c r="B30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1"/>
-      <c r="B31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1"/>
-      <c r="B32" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1"/>
-      <c r="B33" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1"/>
-      <c r="B34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1"/>
-      <c r="B35" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1"/>
-      <c r="B36" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1"/>
-      <c r="B37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1"/>
-      <c r="B38" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1"/>
-      <c r="B39" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1"/>
-      <c r="B40" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1"/>
-      <c r="B41" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1"/>
-      <c r="B42" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1"/>
-      <c r="B43" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1"/>
-      <c r="B44" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1"/>
-      <c r="B45" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1"/>
-      <c r="B46" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1"/>
-      <c r="B47" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1"/>
-      <c r="B48" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1"/>
-      <c r="B49" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1"/>
-      <c r="B50" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1"/>
-      <c r="B51" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1"/>
-      <c r="B52" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1"/>
-      <c r="B53" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1"/>
-      <c r="B54" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1"/>
-      <c r="B55" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1"/>
-      <c r="B56" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1"/>
-      <c r="B57" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1"/>
-      <c r="B58" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1"/>
-      <c r="B59" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1"/>
-      <c r="B60" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1"/>
-      <c r="B61" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1"/>
-      <c r="B62" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Java/java se bronze/模試.xlsx
+++ b/Java/java se bronze/模試.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\kohon\repo\Competitive-programming\Java\java se bronze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE7787-F992-4A89-9AA1-726020E15DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB39DC5-EA10-469B-B09D-43471EBD5FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10170" yWindow="2813" windowWidth="15390" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9735" yWindow="98" windowWidth="10088" windowHeight="12885" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="3" r:id="rId1"/>
     <sheet name="問題集の苦手分野" sheetId="2" r:id="rId2"/>
-    <sheet name="二回目(0809)" sheetId="4" r:id="rId3"/>
-    <sheet name="一回目" sheetId="1" r:id="rId4"/>
+    <sheet name="四回目(0810)" sheetId="7" r:id="rId3"/>
+    <sheet name="三回目(0810)" sheetId="6" r:id="rId4"/>
+    <sheet name="二回目(0809)" sheetId="4" r:id="rId5"/>
+    <sheet name="一回目" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="160">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -637,10 +639,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7-17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>7-23</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -720,6 +718,91 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defaultなくてもいい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明示、暗黙のコンストラクタ</t>
+    <rPh sb="0" eb="2">
+      <t>メイジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アンモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thisをよく見ましょう。</t>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publicクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>privateを付けられるもの</t>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static→インスタンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバライド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーライドまえのメソッド呼び出し</t>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターフェースの可視性</t>
+    <rPh sb="9" eb="12">
+      <t>カシセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -875,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -894,15 +977,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,6 +988,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1198,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FDF08A-11C1-405C-B417-AE0AEEE28106}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1239,7 +1335,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -1317,7 +1413,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1417,7 +1513,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1466,7 +1562,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1560,7 +1656,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1683,7 +1779,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1812,7 +1908,7 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1858,32 +1954,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA50DF-B315-4988-A79E-78C13B408B2B}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="34.9375" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="7.3125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.3125" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.375" customWidth="1"/>
+    <col min="7" max="7" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="C1" s="17">
-        <f>COUNTIF(C3:C315,"〇")</f>
+      <c r="C1" s="14">
+        <f>COUNTIF(C3:C320,"〇")</f>
         <v>55</v>
       </c>
-      <c r="D1" s="17">
-        <f t="shared" ref="D1:E1" si="0">COUNTIF(D3:D315,"〇")</f>
+      <c r="D1" s="14">
+        <f t="shared" ref="D1:E1" si="0">COUNTIF(D3:D320,"〇")</f>
         <v>38</v>
       </c>
-      <c r="E1" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E1" s="14">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1893,20 +1990,20 @@
       <c r="B2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="24" t="s">
         <v>109</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>113</v>
@@ -1914,844 +2011,961 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="19"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="19"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="15"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="16"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="C7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>126</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="19"/>
+      <c r="C8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="15"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="19"/>
+      <c r="C9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="15"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="C10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="15"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="C11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="15"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="19"/>
+      <c r="B13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="15"/>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="19"/>
+      <c r="B14" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="19"/>
+      <c r="B15" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="15"/>
-      <c r="B14" s="12" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="19"/>
+      <c r="B16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="15"/>
-      <c r="B15" s="11" t="s">
+      <c r="C16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="19"/>
+      <c r="B17" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="16"/>
-      <c r="B16" s="12" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="19"/>
+      <c r="B18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="14" t="s">
+      <c r="C18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="15"/>
-      <c r="B18" s="11" t="s">
+      <c r="C20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="19"/>
+      <c r="B21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="15"/>
-      <c r="B19" s="11" t="s">
+      <c r="C21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="19"/>
+      <c r="B22" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12" t="s">
+      <c r="C22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="19"/>
+      <c r="B23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="11" t="s">
+      <c r="C23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="19"/>
+      <c r="B24" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="15"/>
-      <c r="B22" s="11" t="s">
+      <c r="C24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="19"/>
+      <c r="B25" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="15"/>
-      <c r="B23" s="12" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="19"/>
+      <c r="B26" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="15"/>
-      <c r="B24" s="11" t="s">
+      <c r="C26" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="19"/>
+      <c r="B27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="15"/>
-      <c r="B25" s="11" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="19"/>
+      <c r="B28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="15"/>
-      <c r="B26" s="12" t="s">
+      <c r="C28" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="19"/>
+      <c r="B29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="15"/>
-      <c r="B27" s="11" t="s">
+      <c r="C29" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="19"/>
+      <c r="B30" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="16"/>
-      <c r="B28" s="11" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="20"/>
+      <c r="B31" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="14" t="s">
+      <c r="C31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="15"/>
-      <c r="B30" s="11" t="s">
+      <c r="C32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="19"/>
+      <c r="B33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="15"/>
-      <c r="B31" s="11" t="s">
+      <c r="C33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="19"/>
+      <c r="B34" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="15"/>
-      <c r="B32" s="12" t="s">
+      <c r="C34" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="19"/>
+      <c r="B35" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="15"/>
-      <c r="B33" s="12" t="s">
+      <c r="C35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="19"/>
+      <c r="B36" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="15"/>
-      <c r="B34" s="11" t="s">
+      <c r="C36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="19"/>
+      <c r="B37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="15"/>
-      <c r="B35" s="11" t="s">
+      <c r="C37" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="19"/>
+      <c r="B38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="15"/>
-      <c r="B36" s="11" t="s">
+      <c r="C38" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="19"/>
+      <c r="B39" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="15"/>
-      <c r="B37" s="11" t="s">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="19"/>
+      <c r="B40" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="15"/>
-      <c r="B38" s="12" t="s">
+      <c r="C40" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="19"/>
+      <c r="B41" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="15"/>
-      <c r="B39" s="11" t="s">
+      <c r="C41" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="19"/>
+      <c r="B42" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="15"/>
-      <c r="B40" s="11" t="s">
+      <c r="C42" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="19"/>
+      <c r="B43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="16"/>
-      <c r="B41" s="12" t="s">
+      <c r="C43" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="19"/>
+      <c r="B44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="19"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="14" t="s">
+      <c r="C44" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="15"/>
-      <c r="B43" s="11" t="s">
+      <c r="C46" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="19"/>
+      <c r="B47" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="15"/>
-      <c r="B44" s="12" t="s">
+      <c r="C47" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="19"/>
+      <c r="B48" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="19"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="15"/>
-      <c r="B45" s="12" t="s">
+      <c r="C48" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="19"/>
+      <c r="B49" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="19"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="16"/>
-      <c r="B46" s="12" t="s">
+      <c r="C49" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="20"/>
+      <c r="B50" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="19"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="14" t="s">
+      <c r="C50" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="15"/>
-      <c r="B48" s="11" t="s">
+      <c r="C51" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="19"/>
+      <c r="B52" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="15"/>
-      <c r="B49" s="11" t="s">
+      <c r="C52" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="19"/>
+      <c r="B53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="15"/>
-      <c r="B50" s="11" t="s">
+      <c r="C53" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="19"/>
+      <c r="B54" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="15"/>
-      <c r="B51" s="12" t="s">
+      <c r="C54" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="19"/>
+      <c r="B55" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="19"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="15"/>
-      <c r="B52" s="11" t="s">
+      <c r="C55" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="G55" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="19"/>
+      <c r="B56" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="19"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="15"/>
-      <c r="B53" s="11" t="s">
+      <c r="C56" s="16"/>
+      <c r="D56" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="19"/>
+      <c r="B57" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="15"/>
-      <c r="B54" s="12" t="s">
+      <c r="C57" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="19"/>
+      <c r="B58" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="15"/>
-      <c r="B55" s="11" t="s">
+      <c r="C58" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="19"/>
+      <c r="B59" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="15"/>
-      <c r="B56" s="11" t="s">
+      <c r="C59" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="19"/>
+      <c r="B60" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="15"/>
-      <c r="B57" s="12" t="s">
+      <c r="C60" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="19"/>
+      <c r="B61" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="15"/>
-      <c r="B58" s="12" t="s">
+      <c r="C61" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="19"/>
+      <c r="B62" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="19"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="15"/>
-      <c r="B59" s="11" t="s">
+      <c r="C62" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="19"/>
+      <c r="B63" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="15"/>
-      <c r="B60" s="11" t="s">
+      <c r="C63" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="19"/>
+      <c r="B64" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="16"/>
-      <c r="B61" s="11" t="s">
+      <c r="C64" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="G64" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="20"/>
+      <c r="B65" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="19"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="14" t="s">
+      <c r="C65" s="16"/>
+      <c r="D65" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B66" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="19"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="15"/>
-      <c r="B63" s="11" t="s">
+      <c r="C66" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="G66" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="19"/>
+      <c r="B67" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="15"/>
-      <c r="B64" s="12" t="s">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="19"/>
+      <c r="B68" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="19"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="15"/>
-      <c r="B65" s="11" t="s">
+      <c r="C68" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="19"/>
+      <c r="B69" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="19"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="15"/>
-      <c r="B66" s="12" t="s">
+      <c r="C69" s="16"/>
+      <c r="D69" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="19"/>
+      <c r="B70" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="19"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="15"/>
-      <c r="B67" s="11" t="s">
+      <c r="C70" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="19"/>
+      <c r="B71" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="19"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="15"/>
-      <c r="B68" s="11" t="s">
+      <c r="C71" s="16"/>
+      <c r="D71" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="19"/>
+      <c r="B72" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="19"/>
+      <c r="B73" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="15"/>
-      <c r="B69" s="11" t="s">
+      <c r="C73" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="19"/>
+      <c r="B74" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="15"/>
-      <c r="B70" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="19"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="15"/>
-      <c r="B71" s="12" t="s">
+      <c r="C74" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="19"/>
+      <c r="B75" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="16"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="19"/>
+      <c r="B76" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="19"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="16"/>
-      <c r="B72" s="11" t="s">
+      <c r="C76" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="16"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="20"/>
+      <c r="B77" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+      <c r="C77" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="A62:A72"/>
-    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A51:A65"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="A46:A50"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A28"/>
-    <mergeCell ref="A29:A41"/>
+    <mergeCell ref="A8:A19"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A32:A45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2760,11 +2974,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386ED8CD-8D87-4BED-8D01-3E2DF577800B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6A2720-F2B3-429F-9DDA-F09A54FB84B5}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -2802,23 +3016,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1">
         <f>COUNTIF(C:C,F2)</f>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2840,7 +3051,7 @@
       </c>
       <c r="G3" s="1">
         <f>COUNTIF(C:C,F3)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2860,7 +3071,7 @@
       </c>
       <c r="G4" s="5">
         <f>G2/G1</f>
-        <v>0.8</v>
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2903,13 +3114,1855 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C61" xr:uid="{B90130E3-7146-40A6-951F-8D940B753B95}">
+      <formula1>"〇,×"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41D4625-9221-4B12-81A7-5977A7ECD7A2}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="4.8125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.4375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="4.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <f>SUM(G2:G3)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <f>COUNTIF(C:C,F2)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A61" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <f>COUNTIF(C:C,F3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <f>G2/G1</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C61" xr:uid="{B48BAA9E-9465-437F-8698-E2B198978B81}">
+      <formula1>"〇,×"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386ED8CD-8D87-4BED-8D01-3E2DF577800B}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="4.8125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.4375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="4.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <f>SUM(G2:G3)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <f>COUNTIF(C:C,F2)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A61" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <f>COUNTIF(C:C,F3)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <f>G2/G1</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -2934,7 +4987,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3055,7 +5108,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -3127,7 +5180,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -3267,7 +5320,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -3292,7 +5345,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -3445,7 +5498,7 @@
         <v>31</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
         <v>15</v>
@@ -3516,7 +5569,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3638,7 +5691,7 @@
         <v>31</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -3697,7 +5750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
